--- a/身分證字號.xlsx
+++ b/身分證字號.xlsx
@@ -4,15 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="薇閣捷運電梯兩房" sheetId="4" r:id="rId1"/>
-    <sheet name="薇閣捷運電梯兩房A" sheetId="5" r:id="rId2"/>
-    <sheet name="設計師小豪宅" sheetId="3" r:id="rId3"/>
-    <sheet name="設計師小豪宅A" sheetId="6" r:id="rId4"/>
-    <sheet name="逸仙國小芳鄰電梯" sheetId="2" r:id="rId5"/>
-    <sheet name="逸仙國小芳鄰電梯A" sheetId="1" r:id="rId6"/>
+    <sheet name="設計師小豪宅" sheetId="3" r:id="rId2"/>
+    <sheet name="逸仙國小芳鄰電梯" sheetId="2" r:id="rId3"/>
+    <sheet name="逸仙國小芳鄰電梯A" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>F222997760</t>
   </si>
@@ -35,12 +33,6 @@
     <t>F222993600</t>
   </si>
   <si>
-    <t>F222992710</t>
-  </si>
-  <si>
-    <t>F222990850</t>
-  </si>
-  <si>
     <t>V220482198</t>
   </si>
   <si>
@@ -50,40 +42,16 @@
     <t>V220470198</t>
   </si>
   <si>
-    <t>V220012098</t>
-  </si>
-  <si>
-    <t>V220552748</t>
-  </si>
-  <si>
     <t>F125059596</t>
   </si>
   <si>
     <t>F125509886</t>
   </si>
   <si>
-    <t>F125974356</t>
-  </si>
-  <si>
-    <t>F125041156</t>
-  </si>
-  <si>
-    <t>F125231356</t>
-  </si>
-  <si>
     <t>A222271695</t>
   </si>
   <si>
     <t>A222783225</t>
-  </si>
-  <si>
-    <t>A222697975</t>
-  </si>
-  <si>
-    <t>A222514195</t>
-  </si>
-  <si>
-    <t>A222467155</t>
   </si>
 </sst>
 </file>
@@ -421,35 +389,29 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A1:A5"/>
+      <selection activeCell="A3" sqref="A3:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -459,52 +421,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -524,55 +444,35 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A5"/>
+      <selection activeCell="A5" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -581,81 +481,34 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="A5" sqref="A3:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
